--- a/power-automate-conditional-flows-demo.xlsx
+++ b/power-automate-conditional-flows-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AF8FDAF-64C4-4548-9468-75091CC21213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA5007B3-5388-4965-AEDA-C72392609ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{D749EE24-04A3-4993-8696-9AD73084B8E2}"/>
   </bookViews>
@@ -125,34 +125,34 @@
     <t>Asteroid Mining</t>
   </si>
   <si>
-    <t>phoenix.revival@innovatecorp.com</t>
-  </si>
-  <si>
-    <t>quantum.leap@innovatecorp.com</t>
-  </si>
-  <si>
-    <t>neptune.initiative@innovatecorp.com</t>
-  </si>
-  <si>
-    <t>galactic.gateway@innovatecorp.com</t>
-  </si>
-  <si>
-    <t>cyber.synapse@innovatecorp.com</t>
-  </si>
-  <si>
-    <t>solar.flare@innovatecorp.com</t>
-  </si>
-  <si>
-    <t>quantum.computing@innovatecorp.com</t>
-  </si>
-  <si>
-    <t>ocean.cleanup@innovatecorp.com</t>
-  </si>
-  <si>
-    <t>asteroid.mining@innovatecorp.com</t>
-  </si>
-  <si>
-    <t>george@stringfestanalytics.com</t>
+    <t>YOUR TEST EMAIL HERE</t>
+  </si>
+  <si>
+    <t>phoenix.revival@innovationcorp.com</t>
+  </si>
+  <si>
+    <t>quantum.leap@innovationcorp.com</t>
+  </si>
+  <si>
+    <t>neptune.initiative@innovationcorp.com</t>
+  </si>
+  <si>
+    <t>galactic.gateway@innovationcorp.com</t>
+  </si>
+  <si>
+    <t>cyber.synapse@innovationcorp.com</t>
+  </si>
+  <si>
+    <t>solar.flare@innovationcorp.com</t>
+  </si>
+  <si>
+    <t>quantum.computing@innovationcorp.com</t>
+  </si>
+  <si>
+    <t>ocean.cleanup@innovationcorp.com</t>
+  </si>
+  <si>
+    <t>asteroid.mining@innovationcorp.com</t>
   </si>
 </sst>
 </file>
@@ -168,20 +168,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="26"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -193,17 +199,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -557,7 +561,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.200000000000003" x14ac:dyDescent="1.3"/>
@@ -594,7 +598,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -611,7 +615,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -628,7 +632,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -645,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -662,7 +666,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -679,7 +683,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -696,7 +700,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -713,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -730,7 +734,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -747,7 +751,7 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -758,11 +762,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{F35915F6-2FE6-42F4-AA6D-2BBD21AC4407}"/>
+    <hyperlink ref="C7" r:id="rId1" display="george@stringfestanalytics.com" xr:uid="{F35915F6-2FE6-42F4-AA6D-2BBD21AC4407}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{29332B58-689F-4CB5-8A6A-0ADF21BD49ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>